--- a/Laborbuch/Pendel/Daten/Daten.xlsx
+++ b/Laborbuch/Pendel/Daten/Daten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justu\Desktop\Laborbuch-im-Physikpraktikum\Laborbuch\Pendel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justu\Desktop\Laborbuch-im-Physikpraktikum\Laborbuch\Pendel\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B36CE-9432-4AAA-9624-23A38E3D00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A1EF2D-C710-41F1-B079-C62F4024590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{245FFA13-19AE-4B35-B808-36F13DCEA8FF}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,25 +477,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="C3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="D3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="E3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="F3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="G3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="H3">
-        <v>5.8869999999999996</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -509,31 +509,31 @@
       </c>
       <c r="B6">
         <f>B2-B1+B3/2</f>
-        <v>87.4435</v>
+        <v>87.435000000000002</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:L6" si="0">C2-C1+C3/2</f>
-        <v>73.243499999999997</v>
+        <f t="shared" ref="C6:H6" si="0">C2-C1+C3/2</f>
+        <v>73.234999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>57.543500000000002</v>
+        <v>57.535000000000004</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>44.9435</v>
+        <v>44.935000000000002</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>29.243500000000001</v>
+        <v>29.234999999999999</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>113.84350000000001</v>
+        <v>113.83500000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>147.54349999999999</v>
+        <v>147.535</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>18.777999999999999</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:L17" si="1">AVERAGE(C11:C15)</f>
+        <f t="shared" ref="C17:H17" si="1">AVERAGE(C11:C15)</f>
         <v>17.242000000000001</v>
       </c>
       <c r="D17" s="1">
